--- a/biology/Zoologie/Gobiconodon/Gobiconodon.xlsx
+++ b/biology/Zoologie/Gobiconodon/Gobiconodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gobiconodon est un genre éteint de mammifères eutriconodontes[1]. Il est classé dans la famille des gobiconodontidés et parfois dans le clade des gobiconodontes. Ce sont des animaux carnivores, ayant vécu au Crétacé inférieur, parmi les plus grands mammifères du Mésozoïque. Leur distribution géographique est étendue : Asie, Amérique du Nord, Afrique du Nord et Europe.
-L'espèce type est G. borissiaki, découverte en Mongolie dans la formation géologique de Dzunbain, et décrite en 1978 par B. A. Trofimov[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gobiconodon est un genre éteint de mammifères eutriconodontes. Il est classé dans la famille des gobiconodontidés et parfois dans le clade des gobiconodontes. Ce sont des animaux carnivores, ayant vécu au Crétacé inférieur, parmi les plus grands mammifères du Mésozoïque. Leur distribution géographique est étendue : Asie, Amérique du Nord, Afrique du Nord et Europe.
+L'espèce type est G. borissiaki, découverte en Mongolie dans la formation géologique de Dzunbain, et décrite en 1978 par B. A. Trofimov.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les différentes espèces de Gobicodon mesurent entre 46 et 51 centimètres pour une masse entre 4,5 et 5,4 kg. Comme les autres gobiconodontidés, il montre plusieurs adaptations liées à son régime alimentaire carnivore : de puissantes mâchoires qui portent des molaires cisaillantes et des premières incisives inférieures en forme de grandes canines, ainsi que des membres antérieures à forte musculature qui indiquent qu'ils se nourrissaient probablement de proies vertébrées. Comme son proche parent de plus grande taille, le genre Repenomamus, il pourrait être charognard[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les différentes espèces de Gobicodon mesurent entre 46 et 51 centimètres pour une masse entre 4,5 et 5,4 kg. Comme les autres gobiconodontidés, il montre plusieurs adaptations liées à son régime alimentaire carnivore : de puissantes mâchoires qui portent des molaires cisaillantes et des premières incisives inférieures en forme de grandes canines, ainsi que des membres antérieures à forte musculature qui indiquent qu'ils se nourrissaient probablement de proies vertébrées. Comme son proche parent de plus grande taille, le genre Repenomamus, il pourrait être charognard.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,9 +585,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'analyse phylogénétique réalisée par Thomas Martin et ses collègues en 2015, place Gobiconodon en groupe frère de Repenomamus dans la famille des gobiconodontidés  dont ils sont les deux seuls membres. Cette famille est rattachée directement à l'ordre des eutriconodontes[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse phylogénétique réalisée par Thomas Martin et ses collègues en 2015, place Gobiconodon en groupe frère de Repenomamus dans la famille des gobiconodontidés  dont ils sont les deux seuls membres. Cette famille est rattachée directement à l'ordre des eutriconodontes.
 </t>
         </is>
       </c>
